--- a/spec/ConvSpec-3XX-v1.5.xlsx
+++ b/spec/ConvSpec-3XX-v1.5.xlsx
@@ -1261,11 +1261,6 @@
 If content='video file' then: ## - FileType - http://id.loc.gov/vocabulary/mfiletype/video - add rdfs:label "video file"</t>
   </si>
   <si>
-    <t>If content='Blu-Ray' then: ##EncodingFormat - http://id.loc.gov/vocabulary/mvidformat/bluray - add rdfs:label "Blu-Ray"
-If content='DVD video' then: ##EncodingFormat - http://id.loc.gov/vocabulary/mvidformat/dvd - add rdfs:label "DVD video"
-else ##EncodingFormat rdfs:label</t>
-  </si>
-  <si>
     <t>If content='all regions' then: ## - RegionalEncoding - http://id.loc.gov/vocabulary/mregencoding/all - add rdfs:label "all regions" 
 If content='region 1' then: ## - RegionalEncoding - http://id.loc.gov/vocabulary/mregencoding/region1 - add rdfs:label "region 1" 
 If content='region 2' then: ## - RegionalEncoding - http://id.loc.gov/vocabulary/mregencoding/region2 - add rdfs:label "region 2" 
@@ -1386,10 +1381,6 @@
     <t>W - originPlace - Place - rdfs:label "content of $g"</t>
   </si>
   <si>
-    <t>W - language - Language
-Convert code to URI from http://id.loc.gov/vocabulary/languages</t>
-  </si>
-  <si>
     <t>If $7 exists, then ignore $a</t>
   </si>
   <si>
@@ -1399,13 +1390,21 @@
     <t>## - source - Source - http://id.loc.gov/vocabulary/subjectSchemes/[content of $2]</t>
   </si>
   <si>
-    <t>W - language - Language-  rdfs:label "content of $l"</t>
-  </si>
-  <si>
     <t>##  - literal</t>
   </si>
   <si>
-    <t>Fields 3XX - Physical Description, etc. - v1.5, 05/22/2019</t>
+    <t>Fields 3XX - Physical Description, etc. - v1.5, 05/23/2019</t>
+  </si>
+  <si>
+    <t>If content=['Blu-Ray' or 'Blu-ray'] then: ##EncodingFormat - http://id.loc.gov/vocabulary/mvidformat/bluray - add rdfs:label "Blu-Ray"
+If content='DVD video' then: ##EncodingFormat - http://id.loc.gov/vocabulary/mvidformat/dvd - add rdfs:label "DVD video"
+else ##EncodingFormat rdfs:label</t>
+  </si>
+  <si>
+    <t>W - language - Language - Convert code to URI from http://id.loc.gov/vocabulary/languages ; create a separate W - language - Language for each occurrence of $a</t>
+  </si>
+  <si>
+    <t>W - language - Language -  rdfs:label "content of $l" ; create a separate W - language - Language for each occurrence of $l</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1462,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1473,6 +1472,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,7 +1509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1534,6 +1539,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1842,7 +1853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D519"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B401" sqref="B401"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1857,7 +1870,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>311</v>
@@ -2188,7 +2201,7 @@
         <v>31</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2267,7 +2280,7 @@
         <v>31</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2346,7 +2359,7 @@
         <v>31</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2539,10 +2552,10 @@
     </row>
     <row r="101" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2552,12 +2565,12 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>336</v>
@@ -2565,7 +2578,7 @@
     </row>
     <row r="105" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>336</v>
@@ -2573,7 +2586,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>336</v>
@@ -2587,42 +2600,42 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3235,8 +3248,8 @@
       <c r="A215" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B215" s="5" t="s">
-        <v>395</v>
+      <c r="B215" s="11" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -3260,7 +3273,7 @@
         <v>121</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -3342,7 +3355,7 @@
         <v>125</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -3398,7 +3411,7 @@
         <v>128</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C237" s="3">
         <v>238000</v>
@@ -3452,7 +3465,7 @@
         <v>131</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3510,7 +3523,7 @@
         <v>135</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>331</v>
@@ -3531,7 +3544,7 @@
         <v>136</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C256" s="2">
         <v>73</v>
@@ -3542,7 +3555,7 @@
         <v>137</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C257" s="2">
         <v>9</v>
@@ -3553,7 +3566,7 @@
         <v>138</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C258" s="2">
         <v>6</v>
@@ -3619,7 +3632,7 @@
         <v>144</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C264" s="2">
         <v>11</v>
@@ -4217,7 +4230,7 @@
         <v>228</v>
       </c>
       <c r="B379" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -4233,7 +4246,7 @@
         <v>230</v>
       </c>
       <c r="B381" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -4289,7 +4302,7 @@
         <v>127</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="389" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4349,7 +4362,7 @@
         <v>238</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -4357,20 +4370,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B399" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B399" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B400" s="9" t="s">
-        <v>432</v>
+      <c r="B400" s="12" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="401" spans="1:3" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -4378,7 +4391,7 @@
         <v>30</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="402" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4834,7 +4847,7 @@
         <v>265</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C461" s="2">
         <v>1</v>
@@ -4897,7 +4910,7 @@
         <v>378</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>327</v>
@@ -4942,7 +4955,7 @@
         <v>272</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="476" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5000,7 +5013,7 @@
         <v>275</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5016,7 +5029,7 @@
         <v>277</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5093,7 +5106,7 @@
         <v>280</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -5117,7 +5130,7 @@
         <v>277</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
